--- a/biology/Botanique/Reginald_Ruggles_Gates/Reginald_Ruggles_Gates.xlsx
+++ b/biology/Botanique/Reginald_Ruggles_Gates/Reginald_Ruggles_Gates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reginald Ruggles Gates est un botaniste, un généticien et un anthropologue canadien, né le 1er mai 1882 en Nouvelle-Écosse et mort le 12 août 1962.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’A.B. Gates et d’Elizabeth née Ruggles. Il obtient son Bachelor of Sciences à l’université McGill de Montréal, son Master of Arts au Mont Allison et son doctorat à l’université de Chicago. Il obtiendra plus tard un doctorat honoraire à l’université de Londres.
 Gates est démonstrateur à l’université de Chicago de 1906 à 1908 puis est assistant en 1909. Il est chercheur au Jardin botanique du Missouri de 1910 à 1911. Il enseigne la biologie à l’hôpital St-Thomas de Londres de 1912 à 1914, puis la cytologie au Bedford College de Londres de 1912 à 1914, puis l’hérédité à l’université d’Oxford en 1914. Il revient aux États-Unis d'Amérique et devient professeur associé de zoologie à l’université de Californie de 1915 à 1916, il enseigne la botanique au King's College de Londres de 1919 à 1921 puis obtient un poste de professeur qu’il occupe de 1921 à 1942, reçoit un titre émérite en 1943, chercheur associé à l’université d’Harvard de 1946 à 1950. Il se marie avec Laura Greer en 1955.
